--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H2">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I2">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J2">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05351466666666666</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N2">
-        <v>0.160544</v>
+        <v>0.122026</v>
       </c>
       <c r="O2">
-        <v>0.4601248445175601</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P2">
-        <v>0.4601248445175602</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q2">
-        <v>0.003166266606222222</v>
+        <v>0.07378862053755555</v>
       </c>
       <c r="R2">
-        <v>0.028496399456</v>
+        <v>0.664097584838</v>
       </c>
       <c r="S2">
-        <v>0.002687399601851374</v>
+        <v>0.07845261922474991</v>
       </c>
       <c r="T2">
-        <v>0.002687399601851375</v>
+        <v>0.07845261922474991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05916633333333333</v>
+        <v>1.814087666666667</v>
       </c>
       <c r="H3">
-        <v>0.177499</v>
+        <v>5.442263</v>
       </c>
       <c r="I3">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="J3">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04067533333333333</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N3">
-        <v>0.122026</v>
+        <v>0.066344</v>
       </c>
       <c r="O3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q3">
-        <v>0.002406610330444444</v>
+        <v>0.04011794405244445</v>
       </c>
       <c r="R3">
-        <v>0.021659492974</v>
+        <v>0.361061496472</v>
       </c>
       <c r="S3">
-        <v>0.002042633943439281</v>
+        <v>0.04265370142303122</v>
       </c>
       <c r="T3">
-        <v>0.002042633943439281</v>
+        <v>0.04265370142303122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05916633333333333</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H4">
-        <v>0.177499</v>
+        <v>17.245094</v>
       </c>
       <c r="I4">
-        <v>0.005840587905374044</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J4">
-        <v>0.005840587905374045</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02211466666666667</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N4">
-        <v>0.066344</v>
+        <v>0.122026</v>
       </c>
       <c r="O4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q4">
-        <v>0.001308443739555556</v>
+        <v>0.2338166489382222</v>
       </c>
       <c r="R4">
-        <v>0.011775993656</v>
+        <v>2.104349840444</v>
       </c>
       <c r="S4">
-        <v>0.001110554360083389</v>
+        <v>0.2485956288913306</v>
       </c>
       <c r="T4">
-        <v>0.001110554360083389</v>
+        <v>0.2485956288913306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>17.245094</v>
       </c>
       <c r="I5">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J5">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05351466666666666</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N5">
-        <v>0.160544</v>
+        <v>0.066344</v>
       </c>
       <c r="O5">
-        <v>0.4601248445175601</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P5">
-        <v>0.4601248445175602</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q5">
-        <v>0.3076218190151111</v>
+        <v>0.1271231684817778</v>
       </c>
       <c r="R5">
-        <v>2.768596371136</v>
+        <v>1.144108516336</v>
       </c>
       <c r="S5">
-        <v>0.2610970132197338</v>
+        <v>0.1351583138279255</v>
       </c>
       <c r="T5">
-        <v>0.2610970132197339</v>
+        <v>0.1351583138279255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.748364666666667</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H6">
-        <v>17.245094</v>
+        <v>22.250537</v>
       </c>
       <c r="I6">
-        <v>0.567448196572592</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J6">
-        <v>0.5674481965725922</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.122026</v>
       </c>
       <c r="O6">
-        <v>0.3497308792424494</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P6">
-        <v>0.3497308792424494</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q6">
-        <v>0.2338166489382222</v>
+        <v>0.3016826697735556</v>
       </c>
       <c r="R6">
-        <v>2.104349840444</v>
+        <v>2.715144027962</v>
       </c>
       <c r="S6">
-        <v>0.1984541567118749</v>
+        <v>0.320751295335637</v>
       </c>
       <c r="T6">
-        <v>0.1984541567118749</v>
+        <v>0.320751295335637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.748364666666667</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H7">
-        <v>17.245094</v>
+        <v>22.250537</v>
       </c>
       <c r="I7">
-        <v>0.567448196572592</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J7">
-        <v>0.5674481965725922</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.066344</v>
       </c>
       <c r="O7">
-        <v>0.1901442762399904</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P7">
-        <v>0.1901442762399904</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q7">
-        <v>0.1271231684817778</v>
+        <v>0.1640210696364445</v>
       </c>
       <c r="R7">
-        <v>1.144108516336</v>
+        <v>1.476189626728</v>
       </c>
       <c r="S7">
-        <v>0.1078970266409833</v>
+        <v>0.1743884412973259</v>
       </c>
       <c r="T7">
-        <v>0.1078970266409833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4.322670666666666</v>
-      </c>
-      <c r="H8">
-        <v>12.968012</v>
-      </c>
-      <c r="I8">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="J8">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.05351466666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.160544</v>
-      </c>
-      <c r="O8">
-        <v>0.4601248445175601</v>
-      </c>
-      <c r="P8">
-        <v>0.4601248445175602</v>
-      </c>
-      <c r="Q8">
-        <v>0.2313262798364444</v>
-      </c>
-      <c r="R8">
-        <v>2.081936518527999</v>
-      </c>
-      <c r="S8">
-        <v>0.1963404316959749</v>
-      </c>
-      <c r="T8">
-        <v>0.1963404316959749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.322670666666666</v>
-      </c>
-      <c r="H9">
-        <v>12.968012</v>
-      </c>
-      <c r="I9">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="J9">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04067533333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.122026</v>
-      </c>
-      <c r="O9">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="P9">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="Q9">
-        <v>0.1758260702568889</v>
-      </c>
-      <c r="R9">
-        <v>1.582434632312</v>
-      </c>
-      <c r="S9">
-        <v>0.1492340885871352</v>
-      </c>
-      <c r="T9">
-        <v>0.1492340885871352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.322670666666666</v>
-      </c>
-      <c r="H10">
-        <v>12.968012</v>
-      </c>
-      <c r="I10">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="J10">
-        <v>0.4267112155220338</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02211466666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.066344</v>
-      </c>
-      <c r="O10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="P10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="Q10">
-        <v>0.09559442090311111</v>
-      </c>
-      <c r="R10">
-        <v>0.8603497881279999</v>
-      </c>
-      <c r="S10">
-        <v>0.08113669523892367</v>
-      </c>
-      <c r="T10">
-        <v>0.08113669523892365</v>
+        <v>0.174388441297326</v>
       </c>
     </row>
   </sheetData>
